--- a/data/Tabel 4.2.xlsx
+++ b/data/Tabel 4.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Hp\Desktop\rainfall-prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{686123AD-3811-4C53-AB53-BF9693777BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A4D5F9-72A7-4FA9-8656-6120ECA49215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7995" xr2:uid="{A0D59EB9-7BFD-418A-A98D-A45494F734A9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Air Tmp (C) M 60 Min</t>
   </si>
@@ -72,13 +72,25 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>Mag WD 60 Min (deg) M</t>
+  </si>
+  <si>
+    <t>True WD 60 Min (deg) M</t>
+  </si>
+  <si>
+    <t>0.273045</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +114,13 @@
       <sz val="11"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,10 +155,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -154,8 +174,12 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,22 +492,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A6B4FD-F090-41B5-AB25-75FFB16BC80B}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -501,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -521,7 +547,7 @@
         <v>2040000000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -541,7 +567,7 @@
         <v>3689706</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -561,7 +587,7 @@
         <v>2382819</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -581,7 +607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.25</v>
       </c>
@@ -601,7 +627,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0.5</v>
       </c>
@@ -621,7 +647,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.75</v>
       </c>
@@ -641,7 +667,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -658,6 +684,238 @@
         <v>100000000</v>
       </c>
       <c r="F9" s="4">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1905000000</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1906000000</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1918000000</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1917000000</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1906000000</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1906000000</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1906000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6">
+        <v>26352551</v>
+      </c>
+      <c r="C14" s="6">
+        <v>204625918</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1009294476</v>
+      </c>
+      <c r="F14" s="6">
+        <v>84791501</v>
+      </c>
+      <c r="G14" s="6">
+        <v>203342078</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3754460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2817952</v>
+      </c>
+      <c r="C15" s="6">
+        <v>118346611</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1829971</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2000466</v>
+      </c>
+      <c r="F15" s="6">
+        <v>13232921</v>
+      </c>
+      <c r="G15" s="6">
+        <v>118879535</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2439298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6">
+        <v>21920000</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1002980000</v>
+      </c>
+      <c r="F16" s="6">
+        <v>43300000</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="B17" s="6">
+        <v>24100000</v>
+      </c>
+      <c r="C17" s="6">
+        <v>78000000</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1008000000</v>
+      </c>
+      <c r="F17" s="6">
+        <v>74925000</v>
+      </c>
+      <c r="G17" s="6">
+        <v>78000000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="6">
+        <v>25400000</v>
+      </c>
+      <c r="C18" s="6">
+        <v>247500000</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1009350000</v>
+      </c>
+      <c r="F18" s="6">
+        <v>89400000</v>
+      </c>
+      <c r="G18" s="6">
+        <v>245000000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="B19" s="6">
+        <v>28640000</v>
+      </c>
+      <c r="C19" s="6">
+        <v>305750000</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1010670000</v>
+      </c>
+      <c r="F19" s="6">
+        <v>96000000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>305000000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6">
+        <v>33710000</v>
+      </c>
+      <c r="C20" s="6">
+        <v>360000000</v>
+      </c>
+      <c r="D20" s="6">
+        <v>29700000</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1014260000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="G20" s="6">
+        <v>360000000</v>
+      </c>
+      <c r="H20" s="6">
         <v>13000000</v>
       </c>
     </row>
